--- a/DFJSS_results/final_population_run1.xlsx
+++ b/DFJSS_results/final_population_run1.xlsx
@@ -447,11 +447,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sub(RTO, RT)</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="3">
@@ -460,11 +460,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(min(RTO, CT), RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="4">
@@ -473,11 +473,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sub(min(RTO, CT), RT)</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="5">
@@ -486,11 +486,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="6">
@@ -499,11 +499,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(min(RTO, CT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="7">
@@ -512,11 +512,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="8">
@@ -525,11 +525,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RTO, RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="9">
@@ -538,11 +538,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(min(RTO, CT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="10">
@@ -551,11 +551,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(APTQ, RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="11">
@@ -564,11 +564,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(min(RTO, CT), RT), RT)</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="12">
@@ -577,11 +577,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(min(div(APTQ, CT), CT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="13">
@@ -590,11 +590,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="14">
@@ -603,11 +603,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), RT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, SL), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="15">
@@ -616,11 +616,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(min(RTO, RTO), RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="16">
@@ -629,11 +629,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sub(min(RTO, RTO), RT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(WINQ, WT)), PT))</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="17">
@@ -642,11 +642,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(min(RTO, APTQ), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="18">
@@ -655,11 +655,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ifte(div(CT, CT), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="19">
@@ -668,11 +668,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), PT), PT))</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="20">
@@ -681,11 +681,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(min(div(APTQ, RTO), CT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="21">
@@ -694,11 +694,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(min(RTO, CT), RT), RT)</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="22">
@@ -707,11 +707,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(div(DD, RT), RT)), sub(RTO, RT), div(min(div(APTQ, CT), CT), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), CT), PT))</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="23">
@@ -720,11 +720,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), CT)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), WINQ)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="24">
@@ -733,11 +733,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(min(RTO, CT), RT), div(div(DD, RTO), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="25">
@@ -746,11 +746,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ifte(div(CT, CT), sub(RTO, RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="26">
@@ -759,11 +759,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(sub(RTO, RT), RT))</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="27">
@@ -772,11 +772,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(sub(min(RTO, CT), RT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, SL), mul(PT, PT)), PT))</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="28">
@@ -785,11 +785,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ifte(div(div(div(DD, RT), RT), CT), sub(RTO, RT), div(min(div(APTQ, CT), CT), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="29">
@@ -798,11 +798,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), APTQ)</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, RT)), PT))</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="30">
@@ -811,11 +811,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ifte(CT, sub(RTO, RT), RT)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), RT), PT))</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="31">
@@ -824,11 +824,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ifte(div(CT, RTO), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, APTQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="32">
@@ -837,11 +837,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(min(div(APTQ, RTO), CT), min(RTO, CT)))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(WINQ, PT))</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="33">
@@ -850,11 +850,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ifte(div(min(WT, CT), div(div(DD, RT), RT)), sub(RTO, RT), div(min(div(RT, CT), CT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(RT, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="34">
@@ -863,11 +863,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(min(RTO, RTO), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, SL), mul(RT, WT)), PT))</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="35">
@@ -876,11 +876,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(min(div(APTQ, CT), CT), DD))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(WINQ, WT))</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="36">
@@ -889,11 +889,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), div(div(RT, RT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), PT), PT))</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="37">
@@ -902,11 +902,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(APTQ, CT))</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(PT, RT), mul(PT, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="38">
@@ -915,11 +915,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ifte(RT, sub(min(RTO, RTO), RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="39">
@@ -928,11 +928,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), RT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="40">
@@ -941,11 +941,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), div(div(DD, RTO), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), add(NJQ, CT)))</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="41">
@@ -954,11 +954,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, APTQ), RT), div(mul(PT, WT), WT)), mul(div(max(SL, WT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="42">
@@ -967,11 +967,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(div(DD, RT), RT)), sub(RTO, RT), div(sub(RTO, RT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(PT, RT), mul(PT, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="43">
@@ -980,11 +980,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(div(DD, RTO), RT))</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), PT), PT))</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="44">
@@ -993,11 +993,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ifte(div(CT, CT), sub(min(RTO, CT), RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="45">
@@ -1006,11 +1006,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), CT)</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), WT), PT))</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="46">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ifte(div(div(div(DD, RT), RT), CT), sub(RTO, RT), div(min(div(APTQ, APTQ), CT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, RT)), PT))</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="47">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ifte(div(sub(RTO, RT), RTO), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), RT), PT))</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="48">
@@ -1045,11 +1045,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(min(div(APTQ, RT), CT), min(RTO, CT)))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), min(WINQ, RPT))</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="49">
@@ -1058,11 +1058,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(min(RTO, CT), RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, RT), mul(WT, WT)), PT))</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="50">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(CT, RT))</t>
+          <t>add(mul(max(max(SL, RT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, SL), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="51">
@@ -1084,11 +1084,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, min(RTO, CT)), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, RT), WINQ), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="52">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RTO, RT), div(div(DD, RT), CT))</t>
+          <t>add(mul(max(max(SL, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="53">
@@ -1110,11 +1110,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RPT), RT), sub(RTO, RT), div(min(RTO, CT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), min(WINQ, SL))</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="54">
@@ -1123,11 +1123,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ifte(div(CT, CT), sub(RTO, RT), RT)</t>
+          <t>add(mul(max(max(SL, RT), SL), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="55">
@@ -1136,11 +1136,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(DD, RT)), sub(min(RTO, RTO), RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), WT), div(APTQ, PTN)))</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="56">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), RTO)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="57">
@@ -1162,11 +1162,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ifte(div(CT, CT), sub(RTO, RT), div(div(DD, RT), RTO))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="58">
@@ -1175,11 +1175,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ifte(RT, sub(RTO, RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, APTQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="59">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(min(RTO, CT), RT), RTO)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="60">
@@ -1201,11 +1201,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, WT), sub(RTO, RT), div(sub(RTO, RT), RT))</t>
+          <t>add(mul(max(SL, RT), div(mul(PT, WT), WT)), min(WINQ, SL))</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="61">
@@ -1214,11 +1214,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ifte(div(div(div(DD, RT), RT), CT), sub(RTO, RT), sub(RTO, RT))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="62">
@@ -1227,11 +1227,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ifte(div(CT, RTO), sub(RTO, RT), div(div(DD, RT), sub(RTO, RT)))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), WINQ)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="63">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(min(div(APTQ, RTO), CT), min(RT, CT)))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), RT), PT))</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="64">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ifte(div(min(WT, CT), div(div(DD, RT), RT)), sub(RTO, RT), div(min(div(RT, CT), CT), RTO))</t>
+          <t>add(mul(max(max(SL, APTQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="65">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ifte(div(div(CT, RT), CT), sub(RTO, RT), div(min(RTO, RTO), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), WINQ)</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="66">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(min(div(APTQ, DD), CT), DD))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), min(RT, CT)), PT))</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="67">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(APTQ, RT))</t>
+          <t>add(mul(max(max(SL, RT), SL), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="68">
@@ -1305,11 +1305,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(sub(RTO, RT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), DD), PT))</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="69">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(div(sub(RTO, RT), RTO), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="70">
@@ -1331,11 +1331,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ifte(div(div(div(DD, RT), RTO), CT), sub(RTO, RT), div(min(div(APTQ, APTQ), CT), RT))</t>
+          <t>add(mul(max(max(SL, WT), max(SL, RT)), div(mul(PT, WT), WT)), WINQ)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="71">
@@ -1344,11 +1344,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ifte(div(sub(RTO, RT), RT), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(WT, WT)), PT))</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="72">
@@ -1357,11 +1357,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ifte(div(RTO, CT), sub(RTO, RT), div(min(div(APTQ, RT), CT), min(RTO, CT)))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, WT), PT), PT))</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="73">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(min(RTO, CT), RT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(PT, RT), mul(PT, WINQ)), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="74">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(min(sub(RTO, RT), CT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="75">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ifte(sub(RTO, RT), sub(RTO, RT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, RT), min(RT, SL)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, SL), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="76">
@@ -1409,11 +1409,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ifte(CT, sub(RTO, RT), div(APTQ, RT))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="77">
@@ -1422,11 +1422,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(min(div(APTQ, CT), CT), div(div(DD, RT), RT)))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), RT), PT))</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="78">
@@ -1435,11 +1435,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), RT)</t>
+          <t>add(mul(max(max(SL, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="79">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RTO, RT), div(min(RTO, APTQ), RT))</t>
+          <t>add(mul(max(max(SL, RT), NJQ), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), PT), PT))</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="80">
@@ -1461,11 +1461,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), DD)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), min(mul(WINQ, RT), RPT))</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="81">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(min(RTO, CT), RT), div(min(div(APTQ, RTO), CT), RT))</t>
+          <t>add(mul(max(max(WT, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="82">
@@ -1487,11 +1487,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(div(DD, RT), RT)), sub(RTO, RT), div(min(div(RTO, CT), CT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), WT), div(APTQ, WT)))</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="83">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RTO, RT), CT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(WINQ, WT)), WINQ))</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="84">
@@ -1513,11 +1513,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(RT, RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), WT), PT))</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="85">
@@ -1526,11 +1526,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(sub(min(RTO, CT), RT), sub(RTO, RT)))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(RT, WINQ), WINQ), PT))</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="86">
@@ -1539,11 +1539,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ifte(CT, sub(RTO, RT), CT)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(WINQ, WT))</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="87">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ifte(div(RT, RTO), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), PT), div(mul(PT, RT), mul(PT, WINQ))))</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="88">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ifte(div(min(WT, CT), div(div(DD, RT), RT)), sub(RTO, RT), APTQ)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), add(max(SL, APTQ), CT)))</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="89">
@@ -1578,11 +1578,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(min(RTO, RTO), RT), div(min(div(APTQ, CT), CT), DD))</t>
+          <t>add(mul(max(max(SL, RT), SL), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), RT), PT))</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="90">
@@ -1591,11 +1591,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), div(div(CT, RT), RT))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), DD), PT))</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="91">
@@ -1604,11 +1604,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), RT), sub(RTO, RT), div(APTQ, CT))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), WINQ)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="92">
@@ -1617,11 +1617,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ifte(RT, sub(RTO, RT), RT)</t>
+          <t>add(mul(max(max(SL, WT), max(SL, RT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(WT, WT)), PT))</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="93">
@@ -1630,11 +1630,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), DD)</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), WT))</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="94">
@@ -1643,11 +1643,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ifte(div(div(div(DD, RT), RT), CT), sub(RTO, RT), div(min(div(APTQ, RT), CT), RT))</t>
+          <t>add(mul(max(max(WT, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), RT), PT))</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="95">
@@ -1656,11 +1656,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ifte(div(sub(RTO, RT), RTO), sub(RTO, RT), div(div(DD, RT), APTQ))</t>
+          <t>add(mul(max(SL, RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="96">
@@ -1669,11 +1669,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RTO, RT), div(div(DD, RT), RTO))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WT, WT), mul(PT, WT)), RPT))</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="97">
@@ -1682,11 +1682,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RPT), RT), sub(RTO, RT), div(min(CT, CT), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), CT), PT))</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="98">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ifte(RTO, sub(RTO, RT), RTO)</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, WT), mul(PT, WT)), add(NJQ, CT)))</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="99">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ifte(div(CT, CT), sub(RTO, RT), div(div(DD, RT), div(APTQ, CT)))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, RT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="100">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ifte(RT, sub(RTO, RT), div(min(RTO, CT), RT))</t>
+          <t>add(mul(max(max(SL, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(SL, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="101">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ifte(div(min(div(APTQ, RTO), CT), RTO), sub(RTO, RT), div(div(DD, RT), sub(RTO, RT)))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), PT), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="102">
@@ -1747,11 +1747,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ifte(div(div(DD, RT), CT), sub(RTO, RT), div(CT, min(RT, CT)))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), RT), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="103">
@@ -1760,11 +1760,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ifte(div(min(WT, div(RPT, RT)), div(div(DD, RT), RT)), sub(RTO, RT), RTO)</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="104">
@@ -1773,11 +1773,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RTO, RT), div(div(RT, RTO), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), WT), PT))</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="105">
@@ -1786,11 +1786,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ifte(div(RTO, RT), sub(RTO, RT), div(div(DD, RT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, RT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, RT)), PT))</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>464.7880339510641</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="106">
@@ -1799,11 +1799,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, PT), RT), PT), mul(div(mul(WINQ, RT), mul(WT, WT)), PT))</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="107">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, RT), SL), div(mul(PT, WT), WT)), mul(WINQ, PT))</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="108">
@@ -1825,11 +1825,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RTO), PT), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(SL, RT), div(mul(PT, WT), WT)), min(WINQ, mul(PT, WT)))</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="109">
@@ -1838,11 +1838,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), PT), mul(div(mul(WINQ, WT), WT), PT))</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="110">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RNO, RPT), RPT)</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(RT, WINQ), WINQ), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="111">
@@ -1864,11 +1864,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RNO), PT), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), add(max(RT, APTQ), CT)))</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="112">
@@ -1877,11 +1877,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>min(max(div(RT, div(RT, PT)), div(WINQ, SL)), div(APTQ, min(RPT, RPT)))</t>
+          <t>add(mul(max(max(SL, RT), SL), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), SL), PT))</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="113">
@@ -1890,11 +1890,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>div(min(CT, APTQ), RPT)</t>
+          <t>add(mul(max(max(SL, RT), WT), PT), WINQ)</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="114">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>div(APTQ, RPT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, RT)), PT), mul(div(mul(WINQ, RT), mul(WT, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="115">
@@ -1916,11 +1916,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RNO, RPT), div(RPT, RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, SL), mul(PT, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="116">
@@ -1929,11 +1929,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(div(DD, RPT), RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(WINQ, PT))</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="117">
@@ -1942,11 +1942,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>div(CT, max(RPT, RNO))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(RT, WINQ), mul(PT, PT)), PT))</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="118">
@@ -1955,11 +1955,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), sub(RNO, RPT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, RT)), add(NJQ, CT)))</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="119">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RNO), PT), sub(RNO, RPT), div(sub(RNO, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, RT)), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="120">
@@ -1981,11 +1981,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>div(div(APTQ, min(RPT, RPT)), RPT)</t>
+          <t>add(mul(max(max(SL, PT), RT), PT), mul(div(mul(WINQ, WT), RT), PT))</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="121">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sub(div(max(RPT, RNO), RT), RPT)</t>
+          <t>add(mul(max(max(SL, APTQ), RT), PT), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="122">
@@ -2007,11 +2007,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>sub(SL, DD)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="123">
@@ -2020,11 +2020,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>div(add(RPT, CT), ifte(max(CT, PT), RPT, DD))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), min(WINQ, SL))</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="124">
@@ -2033,11 +2033,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ifte(div(RNO, PT), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(SL, RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="125">
@@ -2046,11 +2046,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(NJQ, RPT)), sub(APTQ, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(WT, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="126">
@@ -2059,11 +2059,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RTO), sub(RNO, RPT), RT)</t>
+          <t>add(mul(max(max(SL, RT), RT), PT), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="127">
@@ -2072,11 +2072,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RNO), PT), sub(RNO, RPT), div(RTO, RPT))</t>
+          <t>add(mul(max(max(SL, SL), RT), div(mul(PT, WT), WT)), WINQ)</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="128">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(div(DD, RPT), RPT), div(CT, RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, APTQ)), PT))</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="129">
@@ -2098,11 +2098,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(RNO, RPT), sub(RNO, RPT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), PT), mul(div(mul(WINQ, WT), mul(PT, WT)), add(NJQ, CT)))</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="130">
@@ -2111,11 +2111,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, APTQ), PT), sub(RNO, RPT), div(sub(RNO, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WT), min(RT, RT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="131">
@@ -2124,11 +2124,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sub(div(max(RPT, APTQ), RT), RPT)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(WT, RT)), add(NJQ, CT)))</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="132">
@@ -2137,11 +2137,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>div(add(RPT, CT), ifte(max(div(PT, DD), PT), RPT, DD))</t>
+          <t>add(mul(max(max(SL, PT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="133">
@@ -2150,11 +2150,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>div(div(DD, DD), RPT)</t>
+          <t>add(mul(max(max(SL, NJQ), RT), div(mul(PT, WT), WT)), mul(WINQ, PT))</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="134">
@@ -2163,11 +2163,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ifte(NJQ, div(CT, RPT), sub(WINQ, WINQ))</t>
+          <t>add(mul(max(max(SL, RT), min(WINQ, SL)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="135">
@@ -2176,11 +2176,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), div(RTO, sub(RNO, RPT)))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="136">
@@ -2189,11 +2189,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>div(min(APTQ, APTQ), RPT)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(WINQ, WT)), WINQ))</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="137">
@@ -2202,11 +2202,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>div(CT, RPT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), WT), div(APTQ, WT)))</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="138">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ifte(div(DD, RPT), sub(RNO, RPT), div(RPT, RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, WT), PT), div(mul(PT, RT), mul(PT, WINQ))))</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="139">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(div(APTQ, RTO), RPT), div(RTO, RT))</t>
+          <t>add(mul(max(SL, RT), PT), min(WINQ, mul(PT, WT)))</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="140">
@@ -2241,11 +2241,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RNO), PT), sub(RNO, min(RPT, RPT)), div(sub(RNO, RPT), RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), PT), mul(div(mul(WINQ, WT), WT), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="141">
@@ -2254,11 +2254,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>div(div(APTQ, RPT), RPT)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), add(max(WT, APTQ), CT)))</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="142">
@@ -2267,11 +2267,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(NJQ, RPT)), sub(APTQ, RPT), div(RTO, sub(SL, SL)))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, RT)), div(mul(WT, WT), WT)))</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="143">
@@ -2280,11 +2280,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ifte(div(RT, RTO), sub(RNO, RPT), RT)</t>
+          <t>add(mul(max(max(SL, SL), RT), PT), WINQ)</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="144">
@@ -2293,11 +2293,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RPT), PT), sub(RNO, RPT), div(RTO, RPT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), PT), mul(div(mul(WINQ, WT), mul(PT, WT)), add(NJQ, WINQ)))</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="145">
@@ -2306,11 +2306,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(APTQ, RPT), sub(RNO, RPT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(WT, RT)), add(RT, CT)))</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="146">
@@ -2319,11 +2319,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sub(div(max(RPT, APTQ), add(RPT, CT)), RPT)</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="147">
@@ -2332,11 +2332,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>min(max(SL, div(WINQ, SL)), div(APTQ, min(RPT, RPT)))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, RT), mul(PT, WT)), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="148">
@@ -2345,11 +2345,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>min(max(div(CT, PT), div(WINQ, APTQ)), div(APTQ, min(RPT, RPT)))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="149">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(RNO, RPT), div(RTO, RTO))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="150">
@@ -2371,11 +2371,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ifte(PT, sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), PT), mul(div(mul(WINQ, WT), WT), PT))</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="151">
@@ -2384,11 +2384,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RTO), div(APTQ, RTO)), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="152">
@@ -2397,11 +2397,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), div(RTO, RTO))</t>
+          <t>add(mul(max(max(SL, PT), RT), PT), mul(div(mul(WINQ, WT), PT), PT))</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="153">
@@ -2410,11 +2410,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RT), sub(RNO, RPT), RNO)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(PT, RT)), PT))</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="154">
@@ -2423,11 +2423,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>div(min(RPT, APTQ), RPT)</t>
+          <t>add(mul(max(max(SL, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, SL), RT), PT))</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="155">
@@ -2436,11 +2436,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(div(RNO, RPT), RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), min(WINQ, RT))</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="156">
@@ -2449,11 +2449,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ifte(div(RNO, add(RPT, CT)), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, WINQ)), APTQ))</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="157">
@@ -2462,11 +2462,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(NJQ, RPT)), sub(APTQ, RPT), div(RTO, APTQ))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="158">
@@ -2475,11 +2475,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ifte(div(div(div(CT, RT), RNO), PT), sub(RNO, RPT), div(RTO, RPT))</t>
+          <t>add(mul(max(max(SL, RT), NJQ), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="159">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(div(DD, RPT), RPT), APTQ)</t>
+          <t>add(mul(max(max(SL, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), PT), PT))</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="160">
@@ -2501,11 +2501,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(RNO, RPT), sub(RNO, div(RPT, RT)))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), add(max(SL, RT), CT)))</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="161">
@@ -2514,11 +2514,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>sub(div(PT, RT), RPT)</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="162">
@@ -2527,11 +2527,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>div(add(RPT, CT), ifte(max(div(PT, DD), max(RPT, APTQ)), RPT, DD))</t>
+          <t>add(mul(max(max(SL, PT), RT), PT), mul(div(mul(WINQ, RT), mul(WT, WT)), WINQ))</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="163">
@@ -2540,11 +2540,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(sub(RNO, min(RPT, RPT)), RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, RT), RT), PT), mul(div(mul(WINQ, WT), RT), PT))</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="164">
@@ -2553,11 +2553,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ifte(div(RNO, RTO), sub(RNO, RPT), RT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), PT), mul(div(mul(WINQ, RT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="165">
@@ -2566,11 +2566,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(APTQ, RPT), sub(APTQ, RPT))</t>
+          <t>add(mul(max(SL, RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(WT, RT)), add(NJQ, CT)))</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="166">
@@ -2579,11 +2579,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>sub(div(max(RPT, RNO), add(RPT, CT)), RPT)</t>
+          <t>add(mul(max(max(SL, RT), min(WT, SL)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="167">
@@ -2592,11 +2592,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>min(max(div(CT, APTQ), div(WINQ, APTQ)), div(APTQ, min(RPT, RPT)))</t>
+          <t>add(mul(max(max(SL, RT), WINQ), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), SL), PT))</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="168">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>min(div(APTQ, PT), div(APTQ, min(RPT, RPT)))</t>
+          <t>add(mul(max(SL, RT), PT), min(WINQ, mul(PTN, WT)))</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="169">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, PT), sub(RNO, RPT), RTO)</t>
+          <t>add(mul(max(max(SL, RT), RT), PT), mul(div(mul(WINQ, WT), WT), div(WT, WT)))</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="170">
@@ -2631,11 +2631,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ifte(RPT, sub(RNO, RPT), RPT)</t>
+          <t>add(mul(max(max(SL, PT), RT), PT), mul(div(mul(WINQ, RT), RT), PT))</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="171">
@@ -2644,11 +2644,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), sub(RPT, RPT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), CT), PT))</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="172">
@@ -2657,11 +2657,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RNO), PT), sub(RNO, RPT), RPT)</t>
+          <t>add(mul(max(max(SL, RT), div(WT, WT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="173">
@@ -2670,11 +2670,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(NJQ, RPT)), sub(APTQ, RPT), div(APTQ, RT))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), mul(WINQ, WT))</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="174">
@@ -2683,11 +2683,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ifte(div(RTO, RTO), sub(RNO, RPT), RT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(RT, RT)), PT))</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="175">
@@ -2696,11 +2696,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, APTQ), PT), sub(RNO, RPT), div(RTO, RPT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(WINQ, WT))</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="176">
@@ -2709,11 +2709,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ifte(div(RNO, PT), sub(div(DD, RPT), RPT), div(CT, RT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), RT), PT))</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="177">
@@ -2722,11 +2722,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, APTQ), RPT), sub(RNO, RPT), div(sub(RNO, RPT), RT))</t>
+          <t>add(mul(max(max(SL, RT), SL), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), CT), PT))</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="178">
@@ -2735,11 +2735,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>sub(div(PT, DD), RPT)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(WINQ, PT))</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="179">
@@ -2748,11 +2748,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ifte(RPT, div(CT, RPT), sub(WINQ, WINQ))</t>
+          <t>add(mul(max(max(WINQ, WT), max(SL, RT)), div(mul(PT, WT), WT)), WINQ)</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="180">
@@ -2761,11 +2761,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), div(RTO, min(APTQ, APTQ)))</t>
+          <t>add(mul(max(max(SL, RT), WT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), WT), PT))</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="181">
@@ -2774,11 +2774,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ifte(div(DD, RPT), sub(CT, RPT), div(RPT, RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, RT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, PT)), PT))</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="182">
@@ -2787,11 +2787,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RPT), div(APTQ, RTO)), sub(RNO, RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, RT), WT), PT), mul(div(mul(WINQ, WT), WT), PT))</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="183">
@@ -2800,11 +2800,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), RNO)</t>
+          <t>add(mul(max(max(RT, RT), SL), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), SL), PT))</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="184">
@@ -2813,11 +2813,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, div(RNO, RPT)), sub(APTQ, RPT), div(RTO, APTQ))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), div(mul(PT, WT), WT)), mul(div(mul(PT, WINQ), mul(PT, PT)), PT))</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="185">
@@ -2826,11 +2826,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ifte(div(div(div(CT, RT), RNO), PT), sub(NJQ, RPT), div(RTO, RPT))</t>
+          <t>add(mul(max(max(WINQ, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="186">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ifte(div(RT, PT), sub(div(DD, RPT), RPT), APTQ)</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), PT), mul(div(mul(WINQ, RT), mul(WINQ, APTQ)), WINQ))</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="187">
@@ -2852,11 +2852,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(RNO, RPT), sub(RNO, div(RPT, APTQ)))</t>
+          <t>add(mul(max(max(SL, PT), RT), PT), mul(div(mul(WINQ, WT), mul(PT, WT)), add(NJQ, CT)))</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="188">
@@ -2865,11 +2865,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ifte(RNO, sub(div(max(RPT, RNO), add(RPT, CT)), RPT), sub(APTQ, RPT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, RT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, RT)), div(mul(WT, WT), WT)))</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="189">
@@ -2878,11 +2878,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>sub(APTQ, RPT)</t>
+          <t>add(mul(max(max(SL, WINQ), RT), PT), mul(WT, add(NJQ, WINQ)))</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="190">
@@ -2891,11 +2891,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>min(max(div(RT, div(APTQ, PT)), WT), div(APTQ, min(RPT, RPT)))</t>
+          <t>add(mul(max(max(SL, PT), RT), PT), mul(div(WINQ, PT), PT))</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="191">
@@ -2904,11 +2904,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>min(max(div(PT, PT), div(WINQ, APTQ)), div(APTQ, min(RPT, RPT)))</t>
+          <t>add(mul(max(max(SL, RT), NJQ), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), RT), PT))</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="192">
@@ -2917,11 +2917,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>min(div(min(RPT, WT), max(APTQ, RPT)), sub(SL, max(SL, DD)))</t>
+          <t>add(mul(max(max(SL, RT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), max(SL, WINQ)), div(mul(PT, WT), WT)))</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="193">
@@ -2930,11 +2930,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, CT), sub(RNO, RPT), div(div(DD, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WINQ), RT), PT), mul(div(mul(WINQ, RT), mul(PT, RT)), PT))</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="194">
@@ -2943,11 +2943,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, APTQ), sub(RNO, RPT), div(RPT, RT))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WT)), WINQ))</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="195">
@@ -2956,11 +2956,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ifte(div(RTO, PT), sub(div(DD, RPT), RPT), div(RTO, RT))</t>
+          <t>add(mul(max(max(SL, WINQ), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), mul(PT, WINQ)), PT))</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="196">
@@ -2969,11 +2969,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, RNO), PT), sub(RNO, RPT), div(sub(APTQ, RPT), RT))</t>
+          <t>add(mul(max(max(SL, WT), RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WT), mul(PT, WT)), mul(PT, WT)))</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="197">
@@ -2982,11 +2982,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ifte(div(RNO, PT), sub(RNO, RPT), div(RTO, CT))</t>
+          <t>add(mul(max(max(SL, APTQ), RT), div(mul(PT, WT), WT)), mul(WINQ, PT))</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="198">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ifte(div(div(APTQ, PT), PT), sub(RNO, RPT), div(RTO, RPT))</t>
+          <t>add(mul(max(max(SL, PT), min(RT, CT)), div(mul(PT, WT), WT)), mul(div(mul(WINQ, RT), WINQ), PT))</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="199">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ifte(div(APTQ, RNO), sub(div(DD, RPT), RPT), div(CT, RT))</t>
+          <t>add(mul(max(SL, RT), div(mul(PT, WT), WT)), mul(div(mul(WINQ, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="200">
@@ -3021,11 +3021,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ifte(APTQ, sub(RNO, RPT), sub(RNO, RNO))</t>
+          <t>add(mul(max(max(WT, SL), RT), div(mul(PT, WT), WT)), mul(div(mul(WT, WINQ), mul(PT, WT)), PT))</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
     <row r="201">
@@ -3034,11 +3034,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sub(div(max(RPT, RPT), RT), RPT)</t>
+          <t>add(mul(max(max(SL, WINQ), RT), PT), mul(div(mul(WINQ, WT), mul(PT, WT)), max(SL, WINQ)))</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>474.4470983406036</v>
+        <v>105.8675959653536</v>
       </c>
     </row>
   </sheetData>
